--- a/config_file.xlsx
+++ b/config_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dans8\PycharmProjects\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erez/Documents/PPO-for-Beginners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5F51D7-D172-43A3-8A1A-5C1D8181F5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2C537-FF48-2A4C-A201-183E29BDEA4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12792" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyperparameters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -105,18 +105,36 @@
     <t>var</t>
   </si>
   <si>
+    <t>generate_new</t>
+  </si>
+  <si>
+    <t>load_index</t>
+  </si>
+  <si>
     <t>history_counter</t>
+  </si>
+  <si>
+    <t>starts from 1</t>
+  </si>
+  <si>
+    <t>when deleting folders should return it to 1 manually</t>
+  </si>
+  <si>
+    <t>iteration_number</t>
+  </si>
+  <si>
+    <t>User must check trains stations compatibility to the history it would like to load</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +142,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +159,14 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,6 +202,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,18 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6171875" customWidth="1"/>
-    <col min="2" max="2" width="10.046875" customWidth="1"/>
-    <col min="3" max="3" width="32.80859375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -553,7 +579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -569,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -577,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -585,7 +611,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -593,7 +619,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -601,7 +627,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -609,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -617,34 +643,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
   </sheetData>
@@ -654,20 +685,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.94921875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -689,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -697,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -705,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -713,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -721,7 +752,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -729,7 +760,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -737,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -745,7 +776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -753,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -761,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -769,7 +800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -777,7 +808,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -785,12 +816,28 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -801,18 +848,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.37890625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.1" customHeight="1">
+    <row r="1" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,16 +867,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>